--- a/Engine/Tables/FXInfoTable.xlsx
+++ b/Engine/Tables/FXInfoTable.xlsx
@@ -11,7 +11,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -25,13 +31,10 @@
     <t>NextFXKinds</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>샘플 효과 정보</t>
   </si>
   <si>
     <t>Sample</t>
-  </si>
-  <si>
-    <t>샘플 효과 정보</t>
   </si>
 </sst>
 </file>
@@ -69,13 +72,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -293,26 +302,28 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="7" width="14.43"/>
+    <col customWidth="1" min="1" max="8" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -329,24 +340,27 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="3">
         <v>0.0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="1">
         <v>-1.0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -363,10 +377,11 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -387,10 +402,11 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -411,10 +427,11 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -435,10 +452,11 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -459,10 +477,11 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -483,10 +502,11 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -507,10 +527,11 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -531,10 +552,11 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -555,10 +577,11 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -579,10 +602,11 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -603,10 +627,11 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -627,10 +652,11 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -651,10 +677,11 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -675,10 +702,11 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -699,10 +727,11 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -723,10 +752,11 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -747,10 +777,11 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -771,10 +802,11 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -795,10 +827,11 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -819,10 +852,11 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -843,10 +877,11 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -867,10 +902,11 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -891,10 +927,11 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -915,10 +952,11 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -939,10 +977,11 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -963,10 +1002,11 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -987,10 +1027,11 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1011,10 +1052,11 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1035,10 +1077,11 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1059,10 +1102,11 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1083,10 +1127,11 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1107,10 +1152,11 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1131,10 +1177,11 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1155,10 +1202,11 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1179,10 +1227,11 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1203,10 +1252,11 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1227,10 +1277,11 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1251,10 +1302,11 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1275,10 +1327,11 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1299,10 +1352,11 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1323,10 +1377,11 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1347,10 +1402,11 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1371,10 +1427,11 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1395,10 +1452,11 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1419,10 +1477,11 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1443,10 +1502,11 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1467,10 +1527,11 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1491,10 +1552,11 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1515,10 +1577,11 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1539,10 +1602,11 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1563,10 +1627,11 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1587,10 +1652,11 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1611,10 +1677,11 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1635,10 +1702,11 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1659,10 +1727,11 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1683,10 +1752,11 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1707,10 +1777,11 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1731,10 +1802,11 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1755,10 +1827,11 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1779,10 +1852,11 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1803,10 +1877,11 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1827,10 +1902,11 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1851,10 +1927,11 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1875,10 +1952,11 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1899,10 +1977,11 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1923,10 +2002,11 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -1947,10 +2027,11 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -1971,10 +2052,11 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -1995,10 +2077,11 @@
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2019,10 +2102,11 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2043,10 +2127,11 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2067,10 +2152,11 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2091,10 +2177,11 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2115,10 +2202,11 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -2139,10 +2227,11 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2163,10 +2252,11 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2187,10 +2277,11 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2211,10 +2302,11 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2235,10 +2327,11 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2259,10 +2352,11 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2283,10 +2377,11 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2307,10 +2402,11 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2331,10 +2427,11 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2355,10 +2452,11 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2379,10 +2477,11 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2403,10 +2502,11 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2427,10 +2527,11 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2451,10 +2552,11 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2475,10 +2577,11 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2499,10 +2602,11 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2523,10 +2627,11 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -2547,10 +2652,11 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2571,10 +2677,11 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -2595,10 +2702,11 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -2619,10 +2727,11 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -2643,10 +2752,11 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -2667,10 +2777,11 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -2691,10 +2802,11 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -2715,10 +2827,11 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -2739,10 +2852,11 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -2763,10 +2877,11 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -2787,10 +2902,11 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -2811,10 +2927,11 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
       <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -2835,10 +2952,11 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -2859,10 +2977,11 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -2883,10 +3002,11 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -2907,10 +3027,11 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
       <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -2931,10 +3052,11 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
       <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -2955,10 +3077,11 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -2979,10 +3102,11 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3003,10 +3127,11 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3027,10 +3152,11 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3051,10 +3177,11 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
       <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3075,10 +3202,11 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3099,10 +3227,11 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
       <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3123,10 +3252,11 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
       <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3147,10 +3277,11 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
       <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3171,10 +3302,11 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
       <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3195,10 +3327,11 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3219,10 +3352,11 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3243,10 +3377,11 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+      <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3267,10 +3402,11 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
       <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+      <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -3291,10 +3427,11 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
+      <c r="W124" s="1"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3315,10 +3452,11 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
       <c r="V125" s="1"/>
+      <c r="W125" s="1"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+      <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -3339,10 +3477,11 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
       <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -3363,10 +3502,11 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
       <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -3387,10 +3527,11 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+      <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3411,10 +3552,11 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
       <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+      <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -3435,10 +3577,11 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
       <c r="V130" s="1"/>
+      <c r="W130" s="1"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3459,10 +3602,11 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
       <c r="V131" s="1"/>
+      <c r="W131" s="1"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+      <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3483,10 +3627,11 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
       <c r="V132" s="1"/>
+      <c r="W132" s="1"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+      <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -3507,10 +3652,11 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
       <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+      <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -3531,10 +3677,11 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
       <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+      <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3555,10 +3702,11 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
       <c r="V135" s="1"/>
+      <c r="W135" s="1"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+      <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3579,10 +3727,11 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
       <c r="V136" s="1"/>
+      <c r="W136" s="1"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+      <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3603,10 +3752,11 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
       <c r="V137" s="1"/>
+      <c r="W137" s="1"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+      <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -3627,10 +3777,11 @@
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
       <c r="V138" s="1"/>
+      <c r="W138" s="1"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+      <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -3651,10 +3802,11 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
       <c r="V139" s="1"/>
+      <c r="W139" s="1"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+      <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -3675,10 +3827,11 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
       <c r="V140" s="1"/>
+      <c r="W140" s="1"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+      <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -3699,10 +3852,11 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
       <c r="V141" s="1"/>
+      <c r="W141" s="1"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+      <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -3723,10 +3877,11 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
       <c r="V142" s="1"/>
+      <c r="W142" s="1"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -3747,10 +3902,11 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
       <c r="V143" s="1"/>
+      <c r="W143" s="1"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -3771,10 +3927,11 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
       <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+      <c r="B145" s="2"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -3795,10 +3952,11 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
       <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+      <c r="B146" s="2"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -3819,10 +3977,11 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
       <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+      <c r="B147" s="2"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -3843,10 +4002,11 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
       <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+      <c r="B148" s="2"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -3867,10 +4027,11 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
       <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+      <c r="B149" s="2"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -3891,10 +4052,11 @@
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
       <c r="V149" s="1"/>
+      <c r="W149" s="1"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+      <c r="B150" s="2"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -3915,10 +4077,11 @@
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
       <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+      <c r="B151" s="2"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -3939,10 +4102,11 @@
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
       <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+      <c r="B152" s="2"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -3963,10 +4127,11 @@
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
       <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+      <c r="B153" s="2"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -3987,10 +4152,11 @@
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
       <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+      <c r="B154" s="2"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -4011,10 +4177,11 @@
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
       <c r="V154" s="1"/>
+      <c r="W154" s="1"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+      <c r="B155" s="2"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -4035,10 +4202,11 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
       <c r="V155" s="1"/>
+      <c r="W155" s="1"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+      <c r="B156" s="2"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -4059,10 +4227,11 @@
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
       <c r="V156" s="1"/>
+      <c r="W156" s="1"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+      <c r="B157" s="2"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -4083,10 +4252,11 @@
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
       <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+      <c r="B158" s="2"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -4107,10 +4277,11 @@
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
       <c r="V158" s="1"/>
+      <c r="W158" s="1"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+      <c r="B159" s="2"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -4131,10 +4302,11 @@
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
       <c r="V159" s="1"/>
+      <c r="W159" s="1"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+      <c r="B160" s="2"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -4155,10 +4327,11 @@
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
       <c r="V160" s="1"/>
+      <c r="W160" s="1"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="B161" s="2"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -4179,10 +4352,11 @@
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
       <c r="V161" s="1"/>
+      <c r="W161" s="1"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+      <c r="B162" s="2"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -4203,10 +4377,11 @@
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
       <c r="V162" s="1"/>
+      <c r="W162" s="1"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+      <c r="B163" s="2"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -4227,10 +4402,11 @@
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
       <c r="V163" s="1"/>
+      <c r="W163" s="1"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+      <c r="B164" s="2"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -4251,10 +4427,11 @@
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
       <c r="V164" s="1"/>
+      <c r="W164" s="1"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+      <c r="B165" s="2"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -4275,10 +4452,11 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
       <c r="V165" s="1"/>
+      <c r="W165" s="1"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+      <c r="B166" s="2"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4299,10 +4477,11 @@
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
       <c r="V166" s="1"/>
+      <c r="W166" s="1"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+      <c r="B167" s="2"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -4323,10 +4502,11 @@
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
       <c r="V167" s="1"/>
+      <c r="W167" s="1"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+      <c r="B168" s="2"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -4347,10 +4527,11 @@
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
       <c r="V168" s="1"/>
+      <c r="W168" s="1"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+      <c r="B169" s="2"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -4371,10 +4552,11 @@
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
       <c r="V169" s="1"/>
+      <c r="W169" s="1"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+      <c r="B170" s="2"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -4395,10 +4577,11 @@
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
       <c r="V170" s="1"/>
+      <c r="W170" s="1"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+      <c r="B171" s="2"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -4419,10 +4602,11 @@
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
       <c r="V171" s="1"/>
+      <c r="W171" s="1"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+      <c r="B172" s="2"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -4443,10 +4627,11 @@
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
       <c r="V172" s="1"/>
+      <c r="W172" s="1"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+      <c r="B173" s="2"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -4467,10 +4652,11 @@
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
       <c r="V173" s="1"/>
+      <c r="W173" s="1"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+      <c r="B174" s="2"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -4491,10 +4677,11 @@
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
       <c r="V174" s="1"/>
+      <c r="W174" s="1"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+      <c r="B175" s="2"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -4515,10 +4702,11 @@
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
       <c r="V175" s="1"/>
+      <c r="W175" s="1"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+      <c r="B176" s="2"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -4539,10 +4727,11 @@
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
       <c r="V176" s="1"/>
+      <c r="W176" s="1"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
+      <c r="B177" s="2"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -4563,10 +4752,11 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
       <c r="V177" s="1"/>
+      <c r="W177" s="1"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+      <c r="B178" s="2"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -4587,10 +4777,11 @@
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
       <c r="V178" s="1"/>
+      <c r="W178" s="1"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+      <c r="B179" s="2"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -4611,10 +4802,11 @@
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
       <c r="V179" s="1"/>
+      <c r="W179" s="1"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+      <c r="B180" s="2"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -4635,10 +4827,11 @@
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
       <c r="V180" s="1"/>
+      <c r="W180" s="1"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+      <c r="B181" s="2"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -4659,10 +4852,11 @@
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
       <c r="V181" s="1"/>
+      <c r="W181" s="1"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+      <c r="B182" s="2"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -4683,10 +4877,11 @@
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
       <c r="V182" s="1"/>
+      <c r="W182" s="1"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+      <c r="B183" s="2"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -4707,10 +4902,11 @@
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
       <c r="V183" s="1"/>
+      <c r="W183" s="1"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+      <c r="B184" s="2"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -4731,10 +4927,11 @@
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
       <c r="V184" s="1"/>
+      <c r="W184" s="1"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+      <c r="B185" s="2"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -4755,10 +4952,11 @@
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
       <c r="V185" s="1"/>
+      <c r="W185" s="1"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+      <c r="B186" s="2"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -4779,10 +4977,11 @@
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
       <c r="V186" s="1"/>
+      <c r="W186" s="1"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+      <c r="B187" s="2"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -4803,10 +5002,11 @@
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
       <c r="V187" s="1"/>
+      <c r="W187" s="1"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+      <c r="B188" s="2"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -4827,10 +5027,11 @@
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
       <c r="V188" s="1"/>
+      <c r="W188" s="1"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+      <c r="B189" s="2"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -4851,10 +5052,11 @@
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
       <c r="V189" s="1"/>
+      <c r="W189" s="1"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+      <c r="B190" s="2"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -4875,10 +5077,11 @@
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
       <c r="V190" s="1"/>
+      <c r="W190" s="1"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+      <c r="B191" s="2"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -4899,10 +5102,11 @@
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
       <c r="V191" s="1"/>
+      <c r="W191" s="1"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
+      <c r="B192" s="2"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -4923,10 +5127,11 @@
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
       <c r="V192" s="1"/>
+      <c r="W192" s="1"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+      <c r="B193" s="2"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -4947,10 +5152,11 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
       <c r="V193" s="1"/>
+      <c r="W193" s="1"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+      <c r="B194" s="2"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -4971,10 +5177,11 @@
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
       <c r="V194" s="1"/>
+      <c r="W194" s="1"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+      <c r="B195" s="2"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -4995,10 +5202,11 @@
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
       <c r="V195" s="1"/>
+      <c r="W195" s="1"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+      <c r="B196" s="2"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5019,10 +5227,11 @@
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
       <c r="V196" s="1"/>
+      <c r="W196" s="1"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+      <c r="B197" s="2"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5043,10 +5252,11 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
       <c r="V197" s="1"/>
+      <c r="W197" s="1"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
+      <c r="B198" s="2"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5067,10 +5277,11 @@
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
       <c r="V198" s="1"/>
+      <c r="W198" s="1"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+      <c r="B199" s="2"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5091,10 +5302,11 @@
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
       <c r="V199" s="1"/>
+      <c r="W199" s="1"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
+      <c r="B200" s="2"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5115,10 +5327,11 @@
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
       <c r="V200" s="1"/>
+      <c r="W200" s="1"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
+      <c r="B201" s="2"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5139,10 +5352,11 @@
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
       <c r="V201" s="1"/>
+      <c r="W201" s="1"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
+      <c r="B202" s="2"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5163,10 +5377,11 @@
       <c r="T202" s="1"/>
       <c r="U202" s="1"/>
       <c r="V202" s="1"/>
+      <c r="W202" s="1"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
+      <c r="B203" s="2"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5187,10 +5402,11 @@
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
       <c r="V203" s="1"/>
+      <c r="W203" s="1"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
+      <c r="B204" s="2"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5211,10 +5427,11 @@
       <c r="T204" s="1"/>
       <c r="U204" s="1"/>
       <c r="V204" s="1"/>
+      <c r="W204" s="1"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
+      <c r="B205" s="2"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5235,10 +5452,11 @@
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
       <c r="V205" s="1"/>
+      <c r="W205" s="1"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
+      <c r="B206" s="2"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5259,10 +5477,11 @@
       <c r="T206" s="1"/>
       <c r="U206" s="1"/>
       <c r="V206" s="1"/>
+      <c r="W206" s="1"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
+      <c r="B207" s="2"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5283,10 +5502,11 @@
       <c r="T207" s="1"/>
       <c r="U207" s="1"/>
       <c r="V207" s="1"/>
+      <c r="W207" s="1"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
+      <c r="B208" s="2"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5307,10 +5527,11 @@
       <c r="T208" s="1"/>
       <c r="U208" s="1"/>
       <c r="V208" s="1"/>
+      <c r="W208" s="1"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
+      <c r="B209" s="2"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5331,10 +5552,11 @@
       <c r="T209" s="1"/>
       <c r="U209" s="1"/>
       <c r="V209" s="1"/>
+      <c r="W209" s="1"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
+      <c r="B210" s="2"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5355,10 +5577,11 @@
       <c r="T210" s="1"/>
       <c r="U210" s="1"/>
       <c r="V210" s="1"/>
+      <c r="W210" s="1"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
+      <c r="B211" s="2"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -5379,10 +5602,11 @@
       <c r="T211" s="1"/>
       <c r="U211" s="1"/>
       <c r="V211" s="1"/>
+      <c r="W211" s="1"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+      <c r="B212" s="2"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -5403,10 +5627,11 @@
       <c r="T212" s="1"/>
       <c r="U212" s="1"/>
       <c r="V212" s="1"/>
+      <c r="W212" s="1"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
+      <c r="B213" s="2"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -5427,10 +5652,11 @@
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
       <c r="V213" s="1"/>
+      <c r="W213" s="1"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+      <c r="B214" s="2"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -5451,10 +5677,11 @@
       <c r="T214" s="1"/>
       <c r="U214" s="1"/>
       <c r="V214" s="1"/>
+      <c r="W214" s="1"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+      <c r="B215" s="2"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -5475,10 +5702,11 @@
       <c r="T215" s="1"/>
       <c r="U215" s="1"/>
       <c r="V215" s="1"/>
+      <c r="W215" s="1"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
+      <c r="B216" s="2"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -5499,10 +5727,11 @@
       <c r="T216" s="1"/>
       <c r="U216" s="1"/>
       <c r="V216" s="1"/>
+      <c r="W216" s="1"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+      <c r="B217" s="2"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -5523,10 +5752,11 @@
       <c r="T217" s="1"/>
       <c r="U217" s="1"/>
       <c r="V217" s="1"/>
+      <c r="W217" s="1"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+      <c r="B218" s="2"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -5547,10 +5777,11 @@
       <c r="T218" s="1"/>
       <c r="U218" s="1"/>
       <c r="V218" s="1"/>
+      <c r="W218" s="1"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
+      <c r="B219" s="2"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -5571,10 +5802,11 @@
       <c r="T219" s="1"/>
       <c r="U219" s="1"/>
       <c r="V219" s="1"/>
+      <c r="W219" s="1"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+      <c r="B220" s="2"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -5595,787 +5827,2348 @@
       <c r="T220" s="1"/>
       <c r="U220" s="1"/>
       <c r="V220" s="1"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+      <c r="W220" s="1"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="B221" s="4"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="B222" s="4"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="B223" s="4"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="B224" s="4"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="B225" s="4"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="B226" s="4"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="B227" s="4"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="B228" s="4"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="B229" s="4"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="B230" s="4"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="B231" s="4"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="B232" s="4"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="B233" s="4"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="B234" s="4"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="B235" s="4"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="B236" s="4"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="B237" s="4"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="B238" s="4"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="B239" s="4"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="B240" s="4"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="B241" s="4"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="B242" s="4"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="B243" s="4"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="B244" s="4"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="B245" s="4"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="B246" s="4"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="B247" s="4"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="B248" s="4"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="B249" s="4"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="B250" s="4"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="B251" s="4"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="B252" s="4"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="B253" s="4"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="B254" s="4"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="B255" s="4"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="B256" s="4"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="B257" s="4"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="B258" s="4"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="B259" s="4"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="B260" s="4"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="B261" s="4"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="B262" s="4"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="B263" s="4"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="B264" s="4"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="B265" s="4"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="B266" s="4"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="B267" s="4"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="B268" s="4"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="B269" s="4"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="B270" s="4"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="B271" s="4"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="B272" s="4"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="B273" s="4"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="B274" s="4"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="B275" s="4"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="B276" s="4"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="B277" s="4"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="B278" s="4"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="B279" s="4"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="B280" s="4"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="B281" s="4"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="B282" s="4"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="B283" s="4"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="B284" s="4"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="B285" s="4"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="B286" s="4"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="B287" s="4"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="B288" s="4"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="B289" s="4"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="B290" s="4"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="B291" s="4"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="B292" s="4"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="B293" s="4"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="B294" s="4"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="B295" s="4"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="B296" s="4"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="B297" s="4"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="B298" s="4"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="B299" s="4"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="B300" s="4"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="B301" s="4"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="B302" s="4"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="B303" s="4"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="B304" s="4"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="B305" s="4"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="B306" s="4"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="B307" s="4"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="B308" s="4"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="B309" s="4"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="B310" s="4"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="B311" s="4"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="B312" s="4"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="B313" s="4"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="B314" s="4"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="B315" s="4"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="B316" s="4"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="B317" s="4"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="B318" s="4"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="B319" s="4"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="B320" s="4"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="B321" s="4"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="B322" s="4"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="B323" s="4"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="B324" s="4"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="B325" s="4"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="B326" s="4"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="B327" s="4"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="B328" s="4"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="B329" s="4"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="B330" s="4"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="B331" s="4"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="B332" s="4"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="B333" s="4"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="B334" s="4"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="B335" s="4"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="B336" s="4"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="B337" s="4"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="B338" s="4"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="B339" s="4"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="B340" s="4"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="B341" s="4"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="B342" s="4"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="B343" s="4"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="B344" s="4"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="B345" s="4"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="B346" s="4"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="B347" s="4"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="B348" s="4"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="B349" s="4"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="B350" s="4"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="B351" s="4"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="B352" s="4"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="B353" s="4"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="B354" s="4"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="B355" s="4"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="B356" s="4"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="B357" s="4"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="B358" s="4"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="B359" s="4"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="B360" s="4"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="B361" s="4"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="B362" s="4"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="B363" s="4"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="B364" s="4"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="B365" s="4"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="B366" s="4"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="B367" s="4"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="B368" s="4"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="B369" s="4"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="B370" s="4"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="B371" s="4"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="B372" s="4"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="B373" s="4"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="B374" s="4"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="B375" s="4"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="B376" s="4"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="B377" s="4"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="B378" s="4"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="B379" s="4"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="B380" s="4"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="B381" s="4"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="B382" s="4"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="B383" s="4"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="B384" s="4"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="B385" s="4"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="B386" s="4"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="B387" s="4"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="B388" s="4"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="B389" s="4"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="B390" s="4"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="B391" s="4"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="B392" s="4"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="B393" s="4"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="B394" s="4"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="B395" s="4"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="B396" s="4"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="B397" s="4"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="B398" s="4"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="B399" s="4"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="B400" s="4"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="B401" s="4"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="B402" s="4"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="B403" s="4"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="B404" s="4"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="B405" s="4"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="B406" s="4"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="B407" s="4"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="B408" s="4"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="B409" s="4"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="B410" s="4"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="B411" s="4"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="B412" s="4"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="B413" s="4"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="B414" s="4"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="B415" s="4"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="B416" s="4"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="B417" s="4"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="B418" s="4"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="B419" s="4"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="B420" s="4"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="B421" s="4"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="B422" s="4"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="B423" s="4"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="B424" s="4"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="B425" s="4"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="B426" s="4"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="B427" s="4"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="B428" s="4"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="B429" s="4"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="B430" s="4"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="B431" s="4"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="B432" s="4"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="B433" s="4"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="B434" s="4"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="B435" s="4"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="B436" s="4"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="B437" s="4"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="B438" s="4"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="B439" s="4"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="B440" s="4"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="B441" s="4"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="B442" s="4"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="B443" s="4"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="B444" s="4"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="B445" s="4"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="B446" s="4"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="B447" s="4"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="B448" s="4"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="B449" s="4"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="B450" s="4"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="B451" s="4"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="B452" s="4"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="B453" s="4"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="B454" s="4"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="B455" s="4"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="B456" s="4"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="B457" s="4"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="B458" s="4"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="B459" s="4"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="B460" s="4"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="B461" s="4"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="B462" s="4"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="B463" s="4"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="B464" s="4"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="B465" s="4"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="B466" s="4"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="B467" s="4"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="B468" s="4"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="B469" s="4"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="B470" s="4"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="B471" s="4"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="B472" s="4"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="B473" s="4"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="B474" s="4"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="B475" s="4"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="B476" s="4"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="B477" s="4"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="B478" s="4"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="B479" s="4"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="B480" s="4"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="B481" s="4"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="B482" s="4"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="B483" s="4"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="B484" s="4"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="B485" s="4"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="B486" s="4"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="B487" s="4"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="B488" s="4"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="B489" s="4"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="B490" s="4"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="B491" s="4"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="B492" s="4"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="B493" s="4"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="B494" s="4"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="B495" s="4"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="B496" s="4"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="B497" s="4"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="B498" s="4"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="B499" s="4"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="B500" s="4"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="B501" s="4"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="B502" s="4"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="B503" s="4"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="B504" s="4"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="B505" s="4"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="B506" s="4"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="B507" s="4"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="B508" s="4"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="B509" s="4"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="B510" s="4"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="B511" s="4"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="B512" s="4"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="B513" s="4"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="B514" s="4"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="B515" s="4"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="B516" s="4"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="B517" s="4"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="B518" s="4"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="B519" s="4"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="B520" s="4"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="B521" s="4"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="B522" s="4"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="B523" s="4"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="B524" s="4"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="B525" s="4"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="B526" s="4"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="B527" s="4"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="B528" s="4"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="B529" s="4"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="B530" s="4"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="B531" s="4"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="B532" s="4"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="B533" s="4"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="B534" s="4"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="B535" s="4"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="B536" s="4"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="B537" s="4"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="B538" s="4"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="B539" s="4"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="B540" s="4"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="B541" s="4"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="B542" s="4"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="B543" s="4"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="B544" s="4"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="B545" s="4"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="B546" s="4"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="B547" s="4"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="B548" s="4"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="B549" s="4"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="B550" s="4"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="B551" s="4"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="B552" s="4"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="B553" s="4"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="B554" s="4"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="B555" s="4"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="B556" s="4"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="B557" s="4"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="B558" s="4"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="B559" s="4"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="B560" s="4"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="B561" s="4"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="B562" s="4"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="B563" s="4"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="B564" s="4"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="B565" s="4"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="B566" s="4"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="B567" s="4"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="B568" s="4"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="B569" s="4"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="B570" s="4"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="B571" s="4"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="B572" s="4"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="B573" s="4"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="B574" s="4"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="B575" s="4"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="B576" s="4"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="B577" s="4"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="B578" s="4"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="B579" s="4"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="B580" s="4"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="B581" s="4"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="B582" s="4"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="B583" s="4"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="B584" s="4"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="B585" s="4"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="B586" s="4"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="B587" s="4"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="B588" s="4"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="B589" s="4"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="B590" s="4"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="B591" s="4"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="B592" s="4"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="B593" s="4"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="B594" s="4"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="B595" s="4"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="B596" s="4"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="B597" s="4"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="B598" s="4"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="B599" s="4"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="B600" s="4"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="B601" s="4"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="B602" s="4"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="B603" s="4"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="B604" s="4"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="B605" s="4"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="B606" s="4"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="B607" s="4"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="B608" s="4"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="B609" s="4"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="B610" s="4"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="B611" s="4"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="B612" s="4"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="B613" s="4"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="B614" s="4"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="B615" s="4"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="B616" s="4"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="B617" s="4"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="B618" s="4"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="B619" s="4"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="B620" s="4"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="B621" s="4"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="B622" s="4"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="B623" s="4"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="B624" s="4"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="B625" s="4"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="B626" s="4"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="B627" s="4"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="B628" s="4"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="B629" s="4"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="B630" s="4"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="B631" s="4"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="B632" s="4"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="B633" s="4"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="B634" s="4"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="B635" s="4"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="B636" s="4"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="B637" s="4"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="B638" s="4"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="B639" s="4"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="B640" s="4"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="B641" s="4"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="B642" s="4"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="B643" s="4"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="B644" s="4"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="B645" s="4"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="B646" s="4"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="B647" s="4"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="B648" s="4"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="B649" s="4"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="B650" s="4"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="B651" s="4"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="B652" s="4"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="B653" s="4"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="B654" s="4"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="B655" s="4"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="B656" s="4"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="B657" s="4"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="B658" s="4"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="B659" s="4"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="B660" s="4"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="B661" s="4"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="B662" s="4"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="B663" s="4"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="B664" s="4"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="B665" s="4"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="B666" s="4"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="B667" s="4"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="B668" s="4"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="B669" s="4"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="B670" s="4"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="B671" s="4"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="B672" s="4"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="B673" s="4"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="B674" s="4"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="B675" s="4"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="B676" s="4"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="B677" s="4"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="B678" s="4"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="B679" s="4"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="B680" s="4"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="B681" s="4"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="B682" s="4"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="B683" s="4"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="B684" s="4"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="B685" s="4"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="B686" s="4"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="B687" s="4"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="B688" s="4"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="B689" s="4"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="B690" s="4"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="B691" s="4"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="B692" s="4"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="B693" s="4"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="B694" s="4"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="B695" s="4"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="B696" s="4"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="B697" s="4"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="B698" s="4"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="B699" s="4"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="B700" s="4"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="B701" s="4"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="B702" s="4"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="B703" s="4"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="B704" s="4"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="B705" s="4"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="B706" s="4"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="B707" s="4"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="B708" s="4"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="B709" s="4"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="B710" s="4"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="B711" s="4"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="B712" s="4"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="B713" s="4"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="B714" s="4"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="B715" s="4"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="B716" s="4"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="B717" s="4"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="B718" s="4"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="B719" s="4"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="B720" s="4"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="B721" s="4"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="B722" s="4"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="B723" s="4"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="B724" s="4"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="B725" s="4"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="B726" s="4"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="B727" s="4"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="B728" s="4"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="B729" s="4"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="B730" s="4"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="B731" s="4"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="B732" s="4"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="B733" s="4"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="B734" s="4"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="B735" s="4"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="B736" s="4"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="B737" s="4"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="B738" s="4"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="B739" s="4"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="B740" s="4"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="B741" s="4"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="B742" s="4"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="B743" s="4"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="B744" s="4"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="B745" s="4"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="B746" s="4"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="B747" s="4"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="B748" s="4"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="B749" s="4"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="B750" s="4"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="B751" s="4"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="B752" s="4"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="B753" s="4"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="B754" s="4"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="B755" s="4"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="B756" s="4"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="B757" s="4"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="B758" s="4"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="B759" s="4"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="B760" s="4"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="B761" s="4"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="B762" s="4"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="B763" s="4"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="B764" s="4"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="B765" s="4"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="B766" s="4"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="B767" s="4"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="B768" s="4"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="B769" s="4"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="B770" s="4"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="B771" s="4"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="B772" s="4"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="B773" s="4"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="B774" s="4"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="B775" s="4"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="B776" s="4"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="B777" s="4"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="B778" s="4"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="B779" s="4"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="B780" s="4"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="B781" s="4"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="B782" s="4"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="B783" s="4"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="B784" s="4"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="B785" s="4"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="B786" s="4"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="B787" s="4"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="B788" s="4"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="B789" s="4"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="B790" s="4"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="B791" s="4"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="B792" s="4"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="B793" s="4"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="B794" s="4"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="B795" s="4"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="B796" s="4"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="B797" s="4"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="B798" s="4"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="B799" s="4"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="B800" s="4"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="B801" s="4"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="B802" s="4"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="B803" s="4"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="B804" s="4"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="B805" s="4"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="B806" s="4"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="B807" s="4"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="B808" s="4"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="B809" s="4"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="B810" s="4"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="B811" s="4"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="B812" s="4"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="B813" s="4"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="B814" s="4"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="B815" s="4"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="B816" s="4"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="B817" s="4"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="B818" s="4"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="B819" s="4"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="B820" s="4"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="B821" s="4"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="B822" s="4"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="B823" s="4"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="B824" s="4"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="B825" s="4"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="B826" s="4"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="B827" s="4"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="B828" s="4"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="B829" s="4"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="B830" s="4"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="B831" s="4"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="B832" s="4"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="B833" s="4"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="B834" s="4"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="B835" s="4"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="B836" s="4"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="B837" s="4"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="B838" s="4"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="B839" s="4"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="B840" s="4"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="B841" s="4"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="B842" s="4"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="B843" s="4"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="B844" s="4"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="B845" s="4"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="B846" s="4"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="B847" s="4"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="B848" s="4"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="B849" s="4"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="B850" s="4"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="B851" s="4"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="B852" s="4"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="B853" s="4"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="B854" s="4"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="B855" s="4"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="B856" s="4"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="B857" s="4"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="B858" s="4"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="B859" s="4"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="B860" s="4"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="B861" s="4"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="B862" s="4"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="B863" s="4"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="B864" s="4"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="B865" s="4"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="B866" s="4"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="B867" s="4"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="B868" s="4"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="B869" s="4"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="B870" s="4"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="B871" s="4"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="B872" s="4"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="B873" s="4"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="B874" s="4"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="B875" s="4"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="B876" s="4"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="B877" s="4"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="B878" s="4"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="B879" s="4"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="B880" s="4"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="B881" s="4"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="B882" s="4"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="B883" s="4"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="B884" s="4"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="B885" s="4"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="B886" s="4"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="B887" s="4"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="B888" s="4"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="B889" s="4"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="B890" s="4"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="B891" s="4"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="B892" s="4"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="B893" s="4"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="B894" s="4"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="B895" s="4"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="B896" s="4"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="B897" s="4"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="B898" s="4"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="B899" s="4"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="B900" s="4"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="B901" s="4"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="B902" s="4"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="B903" s="4"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="B904" s="4"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="B905" s="4"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="B906" s="4"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="B907" s="4"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="B908" s="4"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="B909" s="4"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="B910" s="4"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="B911" s="4"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="B912" s="4"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="B913" s="4"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="B914" s="4"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="B915" s="4"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="B916" s="4"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="B917" s="4"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="B918" s="4"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="B919" s="4"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="B920" s="4"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="B921" s="4"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="B922" s="4"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="B923" s="4"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="B924" s="4"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="B925" s="4"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="B926" s="4"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="B927" s="4"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="B928" s="4"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="B929" s="4"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="B930" s="4"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="B931" s="4"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="B932" s="4"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="B933" s="4"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="B934" s="4"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="B935" s="4"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="B936" s="4"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="B937" s="4"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="B938" s="4"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="B939" s="4"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="B940" s="4"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="B941" s="4"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="B942" s="4"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="B943" s="4"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="B944" s="4"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="B945" s="4"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="B946" s="4"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="B947" s="4"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="B948" s="4"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="B949" s="4"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="B950" s="4"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="B951" s="4"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="B952" s="4"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="B953" s="4"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="B954" s="4"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="B955" s="4"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="B956" s="4"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="B957" s="4"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="B958" s="4"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="B959" s="4"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="B960" s="4"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="B961" s="4"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="B962" s="4"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="B963" s="4"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="B964" s="4"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="B965" s="4"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="B966" s="4"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="B967" s="4"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="B968" s="4"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="B969" s="4"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="B970" s="4"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="B971" s="4"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="B972" s="4"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="B973" s="4"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="B974" s="4"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="B975" s="4"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="B976" s="4"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="B977" s="4"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="B978" s="4"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="B979" s="4"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="B980" s="4"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="B981" s="4"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="B982" s="4"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="B983" s="4"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="B984" s="4"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="B985" s="4"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="B986" s="4"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="B987" s="4"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="B988" s="4"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="B989" s="4"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="B990" s="4"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="B991" s="4"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="B992" s="4"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="B993" s="4"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="B994" s="4"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="B995" s="4"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="B996" s="4"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="B997" s="4"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="B998" s="4"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="B999" s="4"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="B1000" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
